--- a/자유수강권/컴퓨터(수강).xlsx
+++ b/자유수강권/컴퓨터(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="182">
   <si>
     <t>주야</t>
   </si>
@@ -130,6 +130,12 @@
     <t>심재영</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>이지현</t>
+  </si>
+  <si>
     <t>5반</t>
   </si>
   <si>
@@ -163,9 +169,6 @@
     <t>김민준</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>임연진</t>
   </si>
   <si>
@@ -196,6 +199,9 @@
     <t>정진우</t>
   </si>
   <si>
+    <t>박예은</t>
+  </si>
+  <si>
     <t>선동수</t>
   </si>
   <si>
@@ -214,6 +220,9 @@
     <t>이지희</t>
   </si>
   <si>
+    <t>최찬솔</t>
+  </si>
+  <si>
     <t>권주안</t>
   </si>
   <si>
@@ -292,6 +301,9 @@
     <t>박미래</t>
   </si>
   <si>
+    <t>이지민</t>
+  </si>
+  <si>
     <t>정준섭</t>
   </si>
   <si>
@@ -409,6 +421,12 @@
     <t>김민희</t>
   </si>
   <si>
+    <t>박성연</t>
+  </si>
+  <si>
+    <t>엄채원</t>
+  </si>
+  <si>
     <t>윤승욱</t>
   </si>
   <si>
@@ -421,6 +439,9 @@
     <t>강민석</t>
   </si>
   <si>
+    <t>김하늘</t>
+  </si>
+  <si>
     <t>서승원</t>
   </si>
   <si>
@@ -466,6 +487,9 @@
     <t>박서진</t>
   </si>
   <si>
+    <t>신승재</t>
+  </si>
+  <si>
     <t>윤수영</t>
   </si>
   <si>
@@ -478,6 +502,9 @@
     <t>이명호</t>
   </si>
   <si>
+    <t>이주상</t>
+  </si>
+  <si>
     <t>권민서</t>
   </si>
   <si>
@@ -491,6 +518,9 @@
   </si>
   <si>
     <t>이채승</t>
+  </si>
+  <si>
+    <t>전보빈</t>
   </si>
   <si>
     <t>강기쁨</t>
@@ -898,9 +928,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1255,13 +1287,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -1281,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>41</v>
@@ -1307,13 +1339,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
@@ -1333,10 +1365,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>45</v>
@@ -1359,13 +1391,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>13</v>
@@ -1382,13 +1414,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>48</v>
@@ -1408,13 +1440,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>50</v>
@@ -1434,16 +1466,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
@@ -1460,13 +1492,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>53</v>
@@ -1486,13 +1518,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>54</v>
@@ -1512,16 +1544,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -1538,16 +1570,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1564,13 +1596,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>59</v>
@@ -1590,13 +1622,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>60</v>
@@ -1616,13 +1648,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>61</v>
@@ -1642,16 +1674,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
@@ -1668,16 +1700,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
@@ -1694,13 +1726,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>65</v>
@@ -1720,13 +1752,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>66</v>
@@ -1746,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>67</v>
@@ -1772,16 +1804,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1">
+        <v>25</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>13</v>
@@ -1798,16 +1830,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>13</v>
@@ -1824,16 +1856,16 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>13</v>
@@ -1850,13 +1882,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>72</v>
@@ -1876,13 +1908,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>73</v>
@@ -1902,13 +1934,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>74</v>
@@ -1928,13 +1960,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>75</v>
@@ -1954,13 +1986,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>76</v>
@@ -1980,16 +2012,16 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>13</v>
@@ -2006,16 +2038,16 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>13</v>
@@ -2032,16 +2064,16 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>13</v>
@@ -2058,16 +2090,16 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>13</v>
@@ -2084,13 +2116,13 @@
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>83</v>
@@ -2110,16 +2142,16 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>13</v>
@@ -2136,16 +2168,16 @@
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>13</v>
@@ -2162,16 +2194,16 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>13</v>
@@ -2188,13 +2220,13 @@
         <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>88</v>
@@ -2214,16 +2246,16 @@
         <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>13</v>
@@ -2240,16 +2272,16 @@
         <v>8</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>13</v>
@@ -2266,16 +2298,16 @@
         <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>13</v>
@@ -2292,16 +2324,16 @@
         <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>13</v>
@@ -2318,16 +2350,16 @@
         <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>13</v>
@@ -2344,16 +2376,16 @@
         <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>13</v>
@@ -2370,16 +2402,16 @@
         <v>8</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>13</v>
@@ -2396,16 +2428,16 @@
         <v>8</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>13</v>
@@ -2422,16 +2454,16 @@
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>13</v>
@@ -2448,16 +2480,16 @@
         <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>13</v>
@@ -2474,16 +2506,16 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>13</v>
@@ -2500,10 +2532,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>30</v>
@@ -2526,13 +2558,13 @@
         <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>105</v>
@@ -2552,10 +2584,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>11</v>
@@ -2578,13 +2610,13 @@
         <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>107</v>
@@ -2604,13 +2636,13 @@
         <v>8</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>108</v>
@@ -2630,16 +2662,16 @@
         <v>8</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>13</v>
@@ -2656,16 +2688,16 @@
         <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>13</v>
@@ -2682,16 +2714,16 @@
         <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>13</v>
@@ -2708,16 +2740,16 @@
         <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>13</v>
@@ -2734,16 +2766,16 @@
         <v>8</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>13</v>
@@ -2760,16 +2792,16 @@
         <v>8</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>13</v>
@@ -2786,16 +2818,16 @@
         <v>8</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>13</v>
@@ -2812,16 +2844,16 @@
         <v>8</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>13</v>
@@ -2838,13 +2870,13 @@
         <v>8</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>119</v>
@@ -2864,16 +2896,16 @@
         <v>8</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>13</v>
@@ -2890,16 +2922,16 @@
         <v>8</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>13</v>
@@ -2916,16 +2948,16 @@
         <v>8</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>13</v>
@@ -2942,16 +2974,16 @@
         <v>8</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>13</v>
@@ -2968,16 +3000,16 @@
         <v>8</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>13</v>
@@ -2994,16 +3026,16 @@
         <v>8</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>13</v>
@@ -3020,16 +3052,16 @@
         <v>8</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>13</v>
@@ -3046,13 +3078,13 @@
         <v>8</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>129</v>
@@ -3072,13 +3104,13 @@
         <v>8</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>130</v>
@@ -3098,13 +3130,13 @@
         <v>8</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>131</v>
@@ -3124,10 +3156,10 @@
         <v>8</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -3150,13 +3182,13 @@
         <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>133</v>
@@ -3176,13 +3208,13 @@
         <v>8</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>134</v>
@@ -3202,13 +3234,13 @@
         <v>8</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>135</v>
@@ -3228,13 +3260,13 @@
         <v>8</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>136</v>
@@ -3254,13 +3286,13 @@
         <v>8</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>137</v>
@@ -3280,13 +3312,13 @@
         <v>8</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>138</v>
@@ -3306,13 +3338,13 @@
         <v>8</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>139</v>
@@ -3332,13 +3364,13 @@
         <v>8</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>140</v>
@@ -3358,13 +3390,13 @@
         <v>8</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>141</v>
@@ -3384,13 +3416,13 @@
         <v>8</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>142</v>
@@ -3410,13 +3442,13 @@
         <v>8</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>143</v>
@@ -3436,13 +3468,13 @@
         <v>8</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>144</v>
@@ -3462,13 +3494,13 @@
         <v>8</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>145</v>
@@ -3488,13 +3520,13 @@
         <v>8</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>146</v>
@@ -3514,13 +3546,13 @@
         <v>8</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>147</v>
@@ -3540,16 +3572,16 @@
         <v>8</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>13</v>
@@ -3566,16 +3598,16 @@
         <v>8</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>13</v>
@@ -3592,16 +3624,16 @@
         <v>8</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>13</v>
@@ -3618,16 +3650,16 @@
         <v>8</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>13</v>
@@ -3644,16 +3676,16 @@
         <v>8</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>13</v>
@@ -3670,16 +3702,16 @@
         <v>8</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>13</v>
@@ -3696,16 +3728,16 @@
         <v>8</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>13</v>
@@ -3722,16 +3754,16 @@
         <v>8</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>13</v>
@@ -3748,16 +3780,16 @@
         <v>8</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>13</v>
@@ -3774,16 +3806,16 @@
         <v>8</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>13</v>
@@ -3800,16 +3832,16 @@
         <v>8</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>13</v>
@@ -3826,13 +3858,13 @@
         <v>8</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>161</v>
@@ -3852,13 +3884,13 @@
         <v>8</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>162</v>
@@ -3878,13 +3910,13 @@
         <v>8</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>163</v>
@@ -3904,13 +3936,13 @@
         <v>8</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>164</v>
@@ -3930,13 +3962,13 @@
         <v>8</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>165</v>
@@ -3956,13 +3988,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>166</v>
@@ -3982,13 +4014,13 @@
         <v>8</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>167</v>
@@ -4008,13 +4040,13 @@
         <v>8</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>168</v>
@@ -4034,13 +4066,13 @@
         <v>8</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>169</v>
@@ -4060,13 +4092,13 @@
         <v>8</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>170</v>
@@ -4086,13 +4118,13 @@
         <v>8</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>171</v>
@@ -4104,6 +4136,266 @@
         <v>13</v>
       </c>
       <c r="H123" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="13.5">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="13.5">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="13.5">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="13.5">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="13.5">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="13.5">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="13.5">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="13.5">
+      <c r="A131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="13.5">
+      <c r="A132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="13.5">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4120,7 +4412,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>